--- a/model/UnmetDemand/Output Files/Output_6_36.xlsx
+++ b/model/UnmetDemand/Output Files/Output_6_36.xlsx
@@ -501,49 +501,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2045748.315399324</v>
+        <v>2091847.181297698</v>
       </c>
       <c r="C2" t="n">
-        <v>2045748.315399324</v>
+        <v>2091847.181297698</v>
       </c>
       <c r="D2" t="n">
-        <v>2045748.315399324</v>
+        <v>2091847.181297698</v>
       </c>
       <c r="E2" t="n">
-        <v>1998433.395554434</v>
+        <v>2088202.915889214</v>
       </c>
       <c r="F2" t="n">
-        <v>1998433.395554431</v>
+        <v>2088202.915888397</v>
       </c>
       <c r="G2" t="n">
-        <v>2063962.543147648</v>
+        <v>2088202.915888418</v>
       </c>
       <c r="H2" t="n">
-        <v>2063962.543147648</v>
+        <v>2088386.342334673</v>
       </c>
       <c r="I2" t="n">
-        <v>2063962.543147647</v>
+        <v>2088564.71129056</v>
       </c>
       <c r="J2" t="n">
-        <v>1989357.874543823</v>
+        <v>2074642.355742359</v>
       </c>
       <c r="K2" t="n">
-        <v>1989357.874543823</v>
+        <v>2074642.355743214</v>
       </c>
       <c r="L2" t="n">
-        <v>2072780.201051239</v>
+        <v>2089770.214439661</v>
       </c>
       <c r="M2" t="n">
-        <v>2072780.201051239</v>
+        <v>2089770.214439661</v>
       </c>
       <c r="N2" t="n">
-        <v>2072780.201051239</v>
+        <v>2089770.214439661</v>
       </c>
       <c r="O2" t="n">
-        <v>1951956.525693599</v>
+        <v>2080915.745161132</v>
       </c>
       <c r="P2" t="n">
-        <v>1951956.525693599</v>
+        <v>2080915.745161068</v>
       </c>
     </row>
     <row r="3">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272800</v>
+        <v>386336.0000000009</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275200</v>
+        <v>295360.0000007986</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-7.952980746453008e-07</v>
       </c>
       <c r="G3" t="n">
-        <v>342400</v>
+        <v>380000.0000000927</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>799.9999998857675</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>800.0000000190994</v>
       </c>
       <c r="J3" t="n">
-        <v>198400</v>
+        <v>252896.0000007841</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>433600</v>
+        <v>427999.9999993818</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>799.9999998857675</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>800.0000000190994</v>
       </c>
       <c r="O3" t="n">
-        <v>81600</v>
+        <v>201952.0000006276</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -605,49 +605,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>973022.9176183684</v>
+        <v>1003077.047848159</v>
       </c>
       <c r="C4" t="n">
-        <v>969588.8308890815</v>
+        <v>999526.7733139393</v>
       </c>
       <c r="D4" t="n">
-        <v>966150.0856068054</v>
+        <v>995971.6826111856</v>
       </c>
       <c r="E4" t="n">
-        <v>932949.2794601647</v>
+        <v>995928.1386632978</v>
       </c>
       <c r="F4" t="n">
-        <v>929622.4157701718</v>
+        <v>992385.0149905866</v>
       </c>
       <c r="G4" t="n">
-        <v>967167.4337845891</v>
+        <v>988837.0019401204</v>
       </c>
       <c r="H4" t="n">
-        <v>963662.8979229191</v>
+        <v>985276.4537483846</v>
       </c>
       <c r="I4" t="n">
-        <v>960153.4696723045</v>
+        <v>981706.3562416356</v>
       </c>
       <c r="J4" t="n">
-        <v>910677.584517689</v>
+        <v>976223.0526044039</v>
       </c>
       <c r="K4" t="n">
-        <v>907350.8616254067</v>
+        <v>972703.7326259633</v>
       </c>
       <c r="L4" t="n">
-        <v>954982.1886846512</v>
+        <v>970508.6960819082</v>
       </c>
       <c r="M4" t="n">
-        <v>951430.0028991899</v>
+        <v>966923.4219437937</v>
       </c>
       <c r="N4" t="n">
-        <v>947872.7096612453</v>
+        <v>963332.9927776469</v>
       </c>
       <c r="O4" t="n">
-        <v>871438.7409141612</v>
+        <v>959702.082687752</v>
       </c>
       <c r="P4" t="n">
-        <v>868185.2813992403</v>
+        <v>956135.4597384369</v>
       </c>
     </row>
     <row r="5">
@@ -657,49 +657,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62295.129</v>
+        <v>74654.77500000005</v>
       </c>
       <c r="C5" t="n">
-        <v>62295.129</v>
+        <v>74654.77500000005</v>
       </c>
       <c r="D5" t="n">
-        <v>62295.129</v>
+        <v>74654.77500000005</v>
       </c>
       <c r="E5" t="n">
-        <v>57587.265</v>
+        <v>73374.98000008389</v>
       </c>
       <c r="F5" t="n">
-        <v>57587.265</v>
+        <v>73374.98000000013</v>
       </c>
       <c r="G5" t="n">
-        <v>64901.268</v>
+        <v>73374.98000000969</v>
       </c>
       <c r="H5" t="n">
-        <v>64901.268</v>
+        <v>73459.04899999769</v>
       </c>
       <c r="I5" t="n">
-        <v>64901.268</v>
+        <v>73543.11799999968</v>
       </c>
       <c r="J5" t="n">
-        <v>56830.644</v>
+        <v>72258.06800000394</v>
       </c>
       <c r="K5" t="n">
-        <v>56830.644</v>
+        <v>72258.06800008769</v>
       </c>
       <c r="L5" t="n">
-        <v>66414.51000000001</v>
+        <v>77302.20800001299</v>
       </c>
       <c r="M5" t="n">
-        <v>66414.51000000001</v>
+        <v>77302.20800001299</v>
       </c>
       <c r="N5" t="n">
-        <v>66414.51000000001</v>
+        <v>76207.80800001313</v>
       </c>
       <c r="O5" t="n">
-        <v>54140.436</v>
+        <v>72653.641</v>
       </c>
       <c r="P5" t="n">
-        <v>54140.436</v>
+        <v>72653.641</v>
       </c>
     </row>
     <row r="6">
@@ -709,49 +709,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737555.7914807097</v>
+        <v>627765.8288548336</v>
       </c>
       <c r="C6" t="n">
-        <v>1013789.878209997</v>
+        <v>1017652.103389054</v>
       </c>
       <c r="D6" t="n">
-        <v>1017228.623492273</v>
+        <v>1021207.194091808</v>
       </c>
       <c r="E6" t="n">
-        <v>732563.8490205717</v>
+        <v>723520.800511773</v>
       </c>
       <c r="F6" t="n">
-        <v>1011090.712710562</v>
+        <v>1022423.924185347</v>
       </c>
       <c r="G6" t="n">
-        <v>689441.9676775979</v>
+        <v>645971.9372349347</v>
       </c>
       <c r="H6" t="n">
-        <v>1035346.503539267</v>
+        <v>1028832.092873145</v>
       </c>
       <c r="I6" t="n">
-        <v>1038855.931789882</v>
+        <v>1032496.734530445</v>
       </c>
       <c r="J6" t="n">
-        <v>823305.3512676936</v>
+        <v>773229.3406547343</v>
       </c>
       <c r="K6" t="n">
-        <v>1025032.074159976</v>
+        <v>1029644.66063473</v>
       </c>
       <c r="L6" t="n">
-        <v>617742.7330675951</v>
+        <v>613942.513027147</v>
       </c>
       <c r="M6" t="n">
-        <v>1054894.918853056</v>
+        <v>1044727.787164758</v>
       </c>
       <c r="N6" t="n">
-        <v>1058452.212091</v>
+        <v>1049412.616330771</v>
       </c>
       <c r="O6" t="n">
-        <v>944587.074239051</v>
+        <v>846579.4974761759</v>
       </c>
       <c r="P6" t="n">
-        <v>1029440.533753972</v>
+        <v>1052098.120426054</v>
       </c>
     </row>
   </sheetData>
@@ -854,76 +854,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>14.45587482795095</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>32.2758748279487</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>32.2758748279487</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>32.2758748279487</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>32.2758748279487</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32.2758748279487</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>14.84995882994809</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="3">
@@ -933,76 +933,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="4">
@@ -1012,76 +1012,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="5">
@@ -1091,76 +1091,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>32.21999999999593</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>32.27587482794857</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>32.27587482794857</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>32.27587482794857</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>32.27587482794857</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>14.84995882994795</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="6">
@@ -1170,76 +1170,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="7">
@@ -1249,76 +1249,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="8">
@@ -1328,76 +1328,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>14.45587482795082</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>14.45587482795082</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>14.45587482795082</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>32.27587482794857</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>32.27587482794857</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>32.27587482794857</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>32.27587482794857</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>14.84995882994795</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="9">
@@ -1407,76 +1407,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="10">
@@ -1486,76 +1486,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="11">
@@ -1565,76 +1565,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.4560698500091</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>149.7260698500037</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>221.9960698499984</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>221.9960698499984</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>221.9960698499984</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.9960698499984</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>149.0145982968227</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>93.00908391172973</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="12">
@@ -1644,76 +1644,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="13">
@@ -1723,76 +1723,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="14">
@@ -1802,76 +1802,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>130.6699999999903</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>202.9399999999849</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>202.9399999999849</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>221.9960698511721</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>221.9960698511721</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>221.9960698511721</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.9960698511721</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.014598297619</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>93.00908391211684</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="15">
@@ -1881,76 +1881,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="16">
@@ -1960,76 +1960,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="17">
@@ -2039,76 +2039,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>77.45606985083836</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>77.45606985083836</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>149.726069850833</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>221.9960698508276</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>221.9960698508276</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>221.9960698508276</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.9960698508276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>149.0145982973894</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>93.00908391200201</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="18">
@@ -2118,76 +2118,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="19">
@@ -2197,76 +2197,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="20">
@@ -2276,76 +2276,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>74.42576682096802</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>146.6957668209627</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>218.9657668209573</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>218.9657668209573</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>218.9657668209573</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.9657668209573</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>146.9943962774759</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>91.99898290204524</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="21">
@@ -2355,76 +2355,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="22">
@@ -2434,76 +2434,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="23">
@@ -2513,76 +2513,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>71.39546379059263</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>143.6654637905873</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>215.9354637905819</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>215.9354637905819</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>215.9354637905819</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>215.9354637905819</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>144.9741942572256</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>90.9888818919201</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="24">
@@ -2592,76 +2592,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="25">
@@ -2671,76 +2671,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="26">
@@ -2750,76 +2750,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>180.0321823944461</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>299.8221823946854</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>419.6121823949247</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>419.6121823949247</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>419.6121823949247</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>405.8506153065302</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>284.384295267922</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>179.8939323973685</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
     </row>
     <row r="27">
@@ -2829,76 +2829,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
     </row>
     <row r="28">
@@ -2908,76 +2908,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
     </row>
     <row r="29">
@@ -2987,76 +2987,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>216.5900000004328</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>299.8221823926892</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>299.8221823926892</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>419.6121823929286</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>419.6121823929286</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>419.6121823929286</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>405.8506153051459</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>284.3842952669869</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>179.8939323969107</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
     </row>
     <row r="30">
@@ -3066,76 +3066,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
     </row>
     <row r="31">
@@ -3145,76 +3145,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>96.80000000019342</v>
       </c>
     </row>
     <row r="32">
@@ -3224,76 +3224,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>104.242433487572</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>224.0324334878114</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>224.0324334878114</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>224.0324334878114</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>224.0324334878114</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>224.0324334878114</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>163.1721740554445</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>119.2878717911284</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
     </row>
     <row r="33">
@@ -3303,76 +3303,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
     </row>
     <row r="34">
@@ -3382,76 +3382,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
     </row>
     <row r="35">
@@ -3461,76 +3461,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>216.5900000004327</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>224.0324334878114</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>224.0324334878114</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>224.0324334878114</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>224.0324334878114</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>163.1721740554445</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>119.2878717911284</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
     </row>
     <row r="36">
@@ -3540,76 +3540,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
     </row>
     <row r="37">
@@ -3619,76 +3619,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>96.80000000019341</v>
       </c>
     </row>
     <row r="38">
@@ -3698,76 +3698,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>184.3700000004368</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>209.6324334878132</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>209.6324334878132</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.6324334878132</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6324334878132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>148.7721740554463</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>104.8878717911302</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
     </row>
     <row r="39">
@@ -3777,76 +3777,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
     </row>
     <row r="40">
@@ -3856,76 +3856,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>82.40000000019523</v>
       </c>
     </row>
     <row r="41">
@@ -3935,76 +3935,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>134.8154637905864</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>237.7754637905863</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>340.7354637905862</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>340.7354637905862</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>340.7354637905862</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>340.7354637905862</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>236.4408609238965</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>149.1222152252577</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="42">
@@ -4014,76 +4014,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="43">
@@ -4093,76 +4093,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="44">
@@ -4172,76 +4172,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>134.815463790376</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>134.815463790376</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>237.7754637903759</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>340.7354637903758</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>340.7354637903758</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>340.7354637903758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>340.7354637903758</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>236.4408609237579</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>149.1222152251872</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="45">
@@ -4251,76 +4251,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="46">
@@ -4330,76 +4330,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
     </row>
   </sheetData>
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>127.0770335365087</v>
+        <v>127.077033533396</v>
       </c>
       <c r="J2" t="n">
-        <v>500.1104761575116</v>
+        <v>500.1104761563469</v>
       </c>
       <c r="K2" t="n">
         <v>720.725</v>
@@ -4541,19 +4541,19 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>660.4</v>
+        <v>660.4564392201543</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7900000000001</v>
+        <v>623.7899999999978</v>
       </c>
       <c r="Q2" t="n">
         <v>602.615</v>
       </c>
       <c r="R2" t="n">
-        <v>484.6236099125817</v>
+        <v>484.6236099102791</v>
       </c>
       <c r="S2" t="n">
-        <v>69.11350712110288</v>
+        <v>69.11350711784442</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.5427265359322</v>
+        <v>142.5427265327423</v>
       </c>
       <c r="J3" t="n">
         <v>508</v>
@@ -4629,7 +4629,7 @@
         <v>508</v>
       </c>
       <c r="R3" t="n">
-        <v>253.8283445833949</v>
+        <v>253.8283445815108</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4681,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>262.7824989850633</v>
+        <v>262.7824989831209</v>
       </c>
       <c r="J4" t="n">
-        <v>595.513356752228</v>
+        <v>595.5133567508796</v>
       </c>
       <c r="K4" t="n">
         <v>739.775</v>
@@ -4705,10 +4705,10 @@
         <v>650.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>398.1032468631165</v>
+        <v>398.1032468607695</v>
       </c>
       <c r="R4" t="n">
-        <v>76.79687323758844</v>
+        <v>76.79687323439593</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4781,10 +4781,10 @@
         <v>660.4</v>
       </c>
       <c r="P5" t="n">
-        <v>605.7900000000001</v>
+        <v>623.7899999999978</v>
       </c>
       <c r="Q5" t="n">
-        <v>602.615</v>
+        <v>602.6714392201542</v>
       </c>
       <c r="R5" t="n">
         <v>484.6236099125817</v>
@@ -5012,7 +5012,7 @@
         <v>680.72</v>
       </c>
       <c r="N8" t="n">
-        <v>676.9100000000001</v>
+        <v>676.9664392201543</v>
       </c>
       <c r="O8" t="n">
         <v>660.4</v>
@@ -5021,7 +5021,7 @@
         <v>605.7900000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>602.615</v>
+        <v>620.6149999999977</v>
       </c>
       <c r="R8" t="n">
         <v>484.6236099125817</v>
@@ -5252,13 +5252,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>660.4</v>
+        <v>679.6485554040539</v>
       </c>
       <c r="P11" t="n">
-        <v>605.7900000000001</v>
+        <v>678.7899999999946</v>
       </c>
       <c r="Q11" t="n">
-        <v>602.615</v>
+        <v>675.6149999999946</v>
       </c>
       <c r="R11" t="n">
         <v>484.6236099125817</v>
@@ -5340,7 +5340,7 @@
         <v>508</v>
       </c>
       <c r="R12" t="n">
-        <v>253.8283445833949</v>
+        <v>253.8283445820856</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>262.7824989850633</v>
+        <v>262.7824989837159</v>
       </c>
       <c r="J13" t="n">
         <v>595.513356752228</v>
@@ -5416,7 +5416,7 @@
         <v>650.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>398.1032468631165</v>
+        <v>398.103246861671</v>
       </c>
       <c r="R13" t="n">
         <v>76.79687323758844</v>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>127.0770335365087</v>
+        <v>127.077033533396</v>
       </c>
       <c r="J14" t="n">
         <v>500.1104761575116</v>
@@ -5486,16 +5486,16 @@
         <v>680.72</v>
       </c>
       <c r="N14" t="n">
-        <v>676.9100000000001</v>
+        <v>749.9099999999946</v>
       </c>
       <c r="O14" t="n">
-        <v>660.4</v>
+        <v>733.4</v>
       </c>
       <c r="P14" t="n">
         <v>605.7900000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>602.615</v>
+        <v>621.8635554052396</v>
       </c>
       <c r="R14" t="n">
         <v>484.6236099125817</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>142.5427265359322</v>
+        <v>142.5427265327423</v>
       </c>
       <c r="J15" t="n">
         <v>508</v>
@@ -5577,7 +5577,7 @@
         <v>508</v>
       </c>
       <c r="R15" t="n">
-        <v>253.8283445833949</v>
+        <v>253.8283445815108</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -5629,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>262.7824989850633</v>
+        <v>262.7824989831209</v>
       </c>
       <c r="J16" t="n">
-        <v>595.513356752228</v>
+        <v>595.5133567508796</v>
       </c>
       <c r="K16" t="n">
         <v>739.775</v>
@@ -5653,7 +5653,7 @@
         <v>650.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>398.1032468631165</v>
+        <v>398.1032468607695</v>
       </c>
       <c r="R16" t="n">
         <v>76.79687323758844</v>
@@ -5723,16 +5723,16 @@
         <v>680.72</v>
       </c>
       <c r="N17" t="n">
-        <v>676.9100000000001</v>
+        <v>696.1585554048917</v>
       </c>
       <c r="O17" t="n">
         <v>660.4</v>
       </c>
       <c r="P17" t="n">
-        <v>605.7900000000001</v>
+        <v>678.7899999999946</v>
       </c>
       <c r="Q17" t="n">
-        <v>602.615</v>
+        <v>675.6149999999946</v>
       </c>
       <c r="R17" t="n">
         <v>484.6236099125817</v>
@@ -5963,13 +5963,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>660.4</v>
+        <v>676.5876432535074</v>
       </c>
       <c r="P20" t="n">
-        <v>605.7900000000001</v>
+        <v>678.7899999999946</v>
       </c>
       <c r="Q20" t="n">
-        <v>602.615</v>
+        <v>675.6149999999946</v>
       </c>
       <c r="R20" t="n">
         <v>484.6236099125817</v>
@@ -6200,13 +6200,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O23" t="n">
-        <v>660.4</v>
+        <v>673.5267311016131</v>
       </c>
       <c r="P23" t="n">
-        <v>605.7900000000001</v>
+        <v>678.7899999999946</v>
       </c>
       <c r="Q23" t="n">
-        <v>602.615</v>
+        <v>675.6149999999946</v>
       </c>
       <c r="R23" t="n">
         <v>484.6236099125817</v>
@@ -6419,10 +6419,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>127.0770335365087</v>
+        <v>127.0770335334289</v>
       </c>
       <c r="J26" t="n">
-        <v>500.1104761575116</v>
+        <v>500.1104761564762</v>
       </c>
       <c r="K26" t="n">
         <v>720.725</v>
@@ -6437,19 +6437,19 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>660.4</v>
+        <v>744.4729115093461</v>
       </c>
       <c r="P26" t="n">
-        <v>605.7900000000001</v>
+        <v>726.7900000002419</v>
       </c>
       <c r="Q26" t="n">
-        <v>602.615</v>
+        <v>723.6150000002417</v>
       </c>
       <c r="R26" t="n">
-        <v>484.6236099125817</v>
+        <v>484.6236099104043</v>
       </c>
       <c r="S26" t="n">
-        <v>69.11350712110288</v>
+        <v>69.11350711786228</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>142.5427265359322</v>
+        <v>142.5427265327791</v>
       </c>
       <c r="J27" t="n">
         <v>508</v>
@@ -6525,7 +6525,7 @@
         <v>508</v>
       </c>
       <c r="R27" t="n">
-        <v>253.8283445833949</v>
+        <v>253.8283445815764</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -6577,10 +6577,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>262.7824989850633</v>
+        <v>262.7824989831888</v>
       </c>
       <c r="J28" t="n">
-        <v>595.513356752228</v>
+        <v>595.5133567510335</v>
       </c>
       <c r="K28" t="n">
         <v>739.775</v>
@@ -6601,10 +6601,10 @@
         <v>650.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>398.1032468631165</v>
+        <v>398.1032468608724</v>
       </c>
       <c r="R28" t="n">
-        <v>76.79687323758844</v>
+        <v>76.79687323441578</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -6671,16 +6671,16 @@
         <v>680.72</v>
       </c>
       <c r="N29" t="n">
-        <v>676.9100000000001</v>
+        <v>797.9100000002418</v>
       </c>
       <c r="O29" t="n">
-        <v>660.4</v>
+        <v>744.4729115073297</v>
       </c>
       <c r="P29" t="n">
         <v>605.7900000000001</v>
       </c>
       <c r="Q29" t="n">
-        <v>602.615</v>
+        <v>723.6150000002417</v>
       </c>
       <c r="R29" t="n">
         <v>484.6236099125817</v>
@@ -6762,7 +6762,7 @@
         <v>508</v>
       </c>
       <c r="R30" t="n">
-        <v>253.8283445833949</v>
+        <v>253.8283445820856</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>262.7824989850633</v>
+        <v>262.7824989837159</v>
       </c>
       <c r="J31" t="n">
         <v>595.513356752228</v>
@@ -6838,7 +6838,7 @@
         <v>650.24</v>
       </c>
       <c r="Q31" t="n">
-        <v>398.1032468631165</v>
+        <v>398.103246861671</v>
       </c>
       <c r="R31" t="n">
         <v>76.79687323758844</v>
@@ -6911,10 +6911,10 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>660.4</v>
+        <v>667.9176095832107</v>
       </c>
       <c r="P32" t="n">
-        <v>605.7900000000001</v>
+        <v>726.7900000002419</v>
       </c>
       <c r="Q32" t="n">
         <v>602.615</v>
@@ -7151,10 +7151,10 @@
         <v>660.4</v>
       </c>
       <c r="P35" t="n">
-        <v>605.7900000000001</v>
+        <v>726.7900000002419</v>
       </c>
       <c r="Q35" t="n">
-        <v>602.615</v>
+        <v>610.1326095832108</v>
       </c>
       <c r="R35" t="n">
         <v>484.6236099125817</v>
@@ -7388,10 +7388,10 @@
         <v>660.4</v>
       </c>
       <c r="P38" t="n">
-        <v>605.7900000000001</v>
+        <v>708.7900000002442</v>
       </c>
       <c r="Q38" t="n">
-        <v>602.615</v>
+        <v>628.1326095832085</v>
       </c>
       <c r="R38" t="n">
         <v>484.6236099125817</v>
@@ -7604,10 +7604,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>127.0770335365087</v>
+        <v>127.077033533396</v>
       </c>
       <c r="J41" t="n">
-        <v>500.1104761575116</v>
+        <v>500.1104761563469</v>
       </c>
       <c r="K41" t="n">
         <v>720.725</v>
@@ -7622,19 +7622,19 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>660.4</v>
+        <v>712.5368321117035</v>
       </c>
       <c r="P41" t="n">
-        <v>605.7900000000001</v>
+        <v>709.79</v>
       </c>
       <c r="Q41" t="n">
-        <v>602.615</v>
+        <v>706.6149999999999</v>
       </c>
       <c r="R41" t="n">
-        <v>484.6236099125817</v>
+        <v>484.6236099102791</v>
       </c>
       <c r="S41" t="n">
-        <v>69.11350712110288</v>
+        <v>69.11350711784442</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>142.5427265359322</v>
+        <v>142.5427265327423</v>
       </c>
       <c r="J42" t="n">
         <v>508</v>
@@ -7710,7 +7710,7 @@
         <v>508</v>
       </c>
       <c r="R42" t="n">
-        <v>253.8283445833949</v>
+        <v>253.8283445815108</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -7762,10 +7762,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>262.7824989850633</v>
+        <v>262.7824989831209</v>
       </c>
       <c r="J43" t="n">
-        <v>595.513356752228</v>
+        <v>595.5133567508796</v>
       </c>
       <c r="K43" t="n">
         <v>739.775</v>
@@ -7786,10 +7786,10 @@
         <v>650.24</v>
       </c>
       <c r="Q43" t="n">
-        <v>398.1032468631165</v>
+        <v>398.1032468607695</v>
       </c>
       <c r="R43" t="n">
-        <v>76.79687323758844</v>
+        <v>76.79687323439593</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -7841,10 +7841,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>127.0770335365087</v>
+        <v>127.0770335333632</v>
       </c>
       <c r="J44" t="n">
-        <v>500.1104761575116</v>
+        <v>500.1104761562177</v>
       </c>
       <c r="K44" t="n">
         <v>720.725</v>
@@ -7856,19 +7856,19 @@
         <v>680.72</v>
       </c>
       <c r="N44" t="n">
-        <v>676.9100000000001</v>
+        <v>729.0468321114911</v>
       </c>
       <c r="O44" t="n">
         <v>660.4</v>
       </c>
       <c r="P44" t="n">
-        <v>605.7900000000001</v>
+        <v>709.79</v>
       </c>
       <c r="Q44" t="n">
-        <v>602.615</v>
+        <v>706.6149999999999</v>
       </c>
       <c r="R44" t="n">
-        <v>484.6236099125817</v>
+        <v>484.623609910154</v>
       </c>
       <c r="S44" t="n">
         <v>69.11350712110288</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>142.5427265359322</v>
+        <v>142.5427265327055</v>
       </c>
       <c r="J45" t="n">
         <v>508</v>
@@ -7947,7 +7947,7 @@
         <v>508</v>
       </c>
       <c r="R45" t="n">
-        <v>253.8283445833949</v>
+        <v>253.8283445814453</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>262.7824989850633</v>
+        <v>262.782498983053</v>
       </c>
       <c r="J46" t="n">
-        <v>595.513356752228</v>
+        <v>595.5133567507257</v>
       </c>
       <c r="K46" t="n">
         <v>739.775</v>
@@ -8023,7 +8023,7 @@
         <v>650.24</v>
       </c>
       <c r="Q46" t="n">
-        <v>398.1032468631165</v>
+        <v>398.1032468606667</v>
       </c>
       <c r="R46" t="n">
         <v>76.79687323758844</v>
@@ -19094,10 +19094,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -19112,7 +19112,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -19148,22 +19148,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>131.9155015748137</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V2" t="n">
-        <v>231.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W2" t="n">
-        <v>208.1811034144504</v>
+        <v>74.1811034144481</v>
       </c>
       <c r="X2" t="n">
-        <v>94.03862501414824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.140866910175873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -19230,13 +19230,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>52.56438083919682</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>47.70788677171572</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>30.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -19306,16 +19306,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>48.05406083153821</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>80.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>91.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>78.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -19331,10 +19331,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>39.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>10.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -19385,22 +19385,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>131.9155015748137</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V5" t="n">
-        <v>231.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W5" t="n">
-        <v>208.1811034144504</v>
+        <v>74.1811034144481</v>
       </c>
       <c r="X5" t="n">
-        <v>94.03862501414824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.140866910175873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -19467,13 +19467,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>52.56438083919682</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>47.70788677171572</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>30.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -19543,16 +19543,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>48.05406083153821</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>80.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>91.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>78.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -19568,10 +19568,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>39.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -19586,7 +19586,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>10.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -19622,22 +19622,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>131.9155015748137</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V8" t="n">
-        <v>231.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W8" t="n">
-        <v>208.1811034144504</v>
+        <v>74.1811034144481</v>
       </c>
       <c r="X8" t="n">
-        <v>94.03862501414824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.140866910175873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -19704,13 +19704,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>52.56438083919682</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>47.70788677171572</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>30.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -19780,16 +19780,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>48.05406083153821</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>80.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>91.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>78.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -19805,13 +19805,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.1037450028298</v>
+        <v>6.103745002348433</v>
       </c>
       <c r="C11" t="n">
-        <v>95.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>35.92891165650076</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -19820,10 +19820,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>24.32666136326498</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>66.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -19859,22 +19859,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.9155015748137</v>
+        <v>52.91550157430186</v>
       </c>
       <c r="U11" t="n">
-        <v>306.3907298200254</v>
+        <v>99.13907298207171</v>
       </c>
       <c r="V11" t="n">
-        <v>287.7171769351695</v>
+        <v>97.27171769358262</v>
       </c>
       <c r="W11" t="n">
-        <v>264.1811034144504</v>
+        <v>94.91811034151316</v>
       </c>
       <c r="X11" t="n">
-        <v>150.0386250141482</v>
+        <v>15.03862501379069</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -19938,16 +19938,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>42.25151063601675</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>108.5643808391968</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>103.7078867717157</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>86.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.32043821347406</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.58810074553628</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -20017,22 +20017,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>104.0540608315382</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>136.8838959963732</v>
+        <v>1.883895995533067</v>
       </c>
       <c r="V13" t="n">
-        <v>147.6635966082617</v>
+        <v>12.66359660744308</v>
       </c>
       <c r="W13" t="n">
-        <v>134.9272246581436</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.48075985369576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -20042,13 +20042,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.1037450028298</v>
+        <v>6.103745002824439</v>
       </c>
       <c r="C14" t="n">
-        <v>95.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>35.92891165650076</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -20057,10 +20057,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>24.32666136326498</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>66.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -20096,22 +20096,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>187.9155015748137</v>
+        <v>52.91550157480833</v>
       </c>
       <c r="U14" t="n">
-        <v>306.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V14" t="n">
-        <v>287.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W14" t="n">
-        <v>264.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X14" t="n">
-        <v>150.0386250141482</v>
+        <v>15.03862501414289</v>
       </c>
       <c r="Y14" t="n">
-        <v>64.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -20175,16 +20175,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>42.25151063601675</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>108.5643808391968</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>103.7078867717157</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>86.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -20200,10 +20200,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.32043821347406</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.58810074553628</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -20254,22 +20254,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>104.0540608315382</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>136.8838959963732</v>
+        <v>1.883895996367869</v>
       </c>
       <c r="V16" t="n">
-        <v>147.6635966082617</v>
+        <v>12.6635966082564</v>
       </c>
       <c r="W16" t="n">
-        <v>134.9272246581436</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.48075985369576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -20279,10 +20279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54.10374500282978</v>
+        <v>6.103745002710752</v>
       </c>
       <c r="C17" t="n">
-        <v>8.325781757739605</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -20333,19 +20333,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>100.9155015748137</v>
+        <v>52.91550157469464</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V17" t="n">
-        <v>200.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W17" t="n">
-        <v>177.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X17" t="n">
-        <v>63.03862501414824</v>
+        <v>15.03862501402921</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -20415,10 +20415,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>21.56438083919682</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>16.70788677171572</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -20491,16 +20491,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>17.05406083153821</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>49.88389599637321</v>
+        <v>1.883895996254182</v>
       </c>
       <c r="V19" t="n">
-        <v>60.66359660826174</v>
+        <v>12.66359660814271</v>
       </c>
       <c r="W19" t="n">
-        <v>47.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -20516,10 +20516,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.10374500282978</v>
+        <v>5.103745002853543</v>
       </c>
       <c r="C20" t="n">
-        <v>8.325781757739605</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -20570,19 +20570,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>100.9155015748137</v>
+        <v>51.91550157483744</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V20" t="n">
-        <v>200.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W20" t="n">
-        <v>177.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X20" t="n">
-        <v>63.03862501414824</v>
+        <v>14.038625014172</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -20652,10 +20652,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>21.56438083919682</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>16.70788677171572</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -20728,16 +20728,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>17.05406083153821</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>49.88389599637321</v>
+        <v>0.8838959963969728</v>
       </c>
       <c r="V22" t="n">
-        <v>60.66359660826174</v>
+        <v>11.6635966082855</v>
       </c>
       <c r="W22" t="n">
-        <v>47.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -20753,10 +20753,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54.10374500282978</v>
+        <v>4.103745002829669</v>
       </c>
       <c r="C23" t="n">
-        <v>8.325781757739605</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -20807,19 +20807,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>100.9155015748137</v>
+        <v>50.91550157481356</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V23" t="n">
-        <v>200.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W23" t="n">
-        <v>177.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X23" t="n">
-        <v>63.03862501414824</v>
+        <v>13.03862501414812</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -20889,10 +20889,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>21.56438083919682</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>16.70788677171572</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -20965,16 +20965,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>17.05406083153821</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>49.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>60.66359660826174</v>
+        <v>10.66359660826163</v>
       </c>
       <c r="W25" t="n">
-        <v>47.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -20990,25 +20990,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150.1037450028298</v>
+        <v>54.10374500301714</v>
       </c>
       <c r="C26" t="n">
-        <v>104.3257817577396</v>
+        <v>8.325781757924233</v>
       </c>
       <c r="D26" t="n">
-        <v>44.92891165650076</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.477067745543422</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.540148704290004</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>33.32666136326498</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>75.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -21044,22 +21044,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>196.9155015748137</v>
+        <v>87.29155015748694</v>
       </c>
       <c r="U26" t="n">
-        <v>315.3907298200254</v>
+        <v>99.13907298201042</v>
       </c>
       <c r="V26" t="n">
-        <v>296.7171769351695</v>
+        <v>97.27171769352442</v>
       </c>
       <c r="W26" t="n">
-        <v>273.1811034144504</v>
+        <v>94.9181103414528</v>
       </c>
       <c r="X26" t="n">
-        <v>159.0386250141482</v>
+        <v>63.03862501434969</v>
       </c>
       <c r="Y26" t="n">
-        <v>73.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -21123,16 +21123,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>51.25151063601675</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>117.5643808391968</v>
+        <v>21.56438083937405</v>
       </c>
       <c r="V27" t="n">
-        <v>112.7078867717157</v>
+        <v>16.70788677189159</v>
       </c>
       <c r="W27" t="n">
-        <v>95.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.32043821347406</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>20.58810074553628</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -21199,25 +21199,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>8.83647841395566</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>113.0540608315382</v>
+        <v>17.05406083168452</v>
       </c>
       <c r="U28" t="n">
-        <v>145.8838959963732</v>
+        <v>49.88389599651964</v>
       </c>
       <c r="V28" t="n">
-        <v>156.6635966082617</v>
+        <v>60.66359660841067</v>
       </c>
       <c r="W28" t="n">
-        <v>143.9272246581436</v>
+        <v>47.92722465829718</v>
       </c>
       <c r="X28" t="n">
-        <v>64.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>61.48075985369576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -21227,25 +21227,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150.1037450028298</v>
+        <v>54.10374500248179</v>
       </c>
       <c r="C29" t="n">
-        <v>104.3257817577396</v>
+        <v>8.325781757367167</v>
       </c>
       <c r="D29" t="n">
-        <v>44.92891165650076</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.477067745543422</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.540148704290004</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>33.32666136326498</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>75.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -21281,22 +21281,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>196.9155015748137</v>
+        <v>87.29155015753034</v>
       </c>
       <c r="U29" t="n">
-        <v>315.3907298200254</v>
+        <v>99.13907298207171</v>
       </c>
       <c r="V29" t="n">
-        <v>296.7171769351695</v>
+        <v>97.27171769358262</v>
       </c>
       <c r="W29" t="n">
-        <v>273.1811034144504</v>
+        <v>94.91811034151316</v>
       </c>
       <c r="X29" t="n">
-        <v>159.0386250141482</v>
+        <v>63.03862501392405</v>
       </c>
       <c r="Y29" t="n">
-        <v>73.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -21360,16 +21360,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>51.25151063601675</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>117.5643808391968</v>
+        <v>21.56438083875946</v>
       </c>
       <c r="V30" t="n">
-        <v>112.7078867717157</v>
+        <v>16.70788677126734</v>
       </c>
       <c r="W30" t="n">
-        <v>95.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -21385,10 +21385,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.32043821347406</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>20.58810074553628</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -21436,25 +21436,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>8.83647841395566</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>113.0540608315382</v>
+        <v>17.05406083083039</v>
       </c>
       <c r="U31" t="n">
-        <v>145.8838959963732</v>
+        <v>49.88389599566642</v>
       </c>
       <c r="V31" t="n">
-        <v>156.6635966082617</v>
+        <v>60.66359660757644</v>
       </c>
       <c r="W31" t="n">
-        <v>143.9272246581436</v>
+        <v>47.92722465749989</v>
       </c>
       <c r="X31" t="n">
-        <v>64.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>61.48075985369576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -21464,7 +21464,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -21518,19 +21518,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>82.91550157481367</v>
+        <v>40.91550157483402</v>
       </c>
       <c r="U32" t="n">
-        <v>201.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V32" t="n">
-        <v>182.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W32" t="n">
-        <v>159.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X32" t="n">
-        <v>45.03862501414824</v>
+        <v>3.038625014168588</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -21600,7 +21600,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -21679,13 +21679,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>31.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>42.66359660826174</v>
+        <v>0.6635966082820914</v>
       </c>
       <c r="W34" t="n">
-        <v>29.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -21701,7 +21701,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -21755,19 +21755,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>82.91550157481367</v>
+        <v>40.91550157483402</v>
       </c>
       <c r="U35" t="n">
-        <v>201.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V35" t="n">
-        <v>182.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W35" t="n">
-        <v>159.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X35" t="n">
-        <v>45.03862501414824</v>
+        <v>3.038625014168588</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -21837,7 +21837,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -21916,13 +21916,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>31.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>42.66359660826174</v>
+        <v>0.6635966082820914</v>
       </c>
       <c r="W37" t="n">
-        <v>29.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -21938,7 +21938,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -21992,19 +21992,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>82.91550157481367</v>
+        <v>40.91550157483402</v>
       </c>
       <c r="U38" t="n">
-        <v>201.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V38" t="n">
-        <v>182.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W38" t="n">
-        <v>159.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X38" t="n">
-        <v>45.03862501414824</v>
+        <v>3.038625014168588</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -22074,7 +22074,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -22153,13 +22153,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>31.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>42.66359660826174</v>
+        <v>0.6635966082820914</v>
       </c>
       <c r="W40" t="n">
-        <v>29.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -22175,25 +22175,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>182.1037450028298</v>
+        <v>37.10374500282967</v>
       </c>
       <c r="C41" t="n">
-        <v>136.3257817577396</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>76.92891165650076</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>39.47706774554342</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>34.54014870429</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>65.32666136326498</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>107.407264750532</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -22229,22 +22229,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>228.9155015748137</v>
+        <v>83.91550157481356</v>
       </c>
       <c r="U41" t="n">
-        <v>347.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V41" t="n">
-        <v>328.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W41" t="n">
-        <v>305.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X41" t="n">
-        <v>191.0386250141482</v>
+        <v>46.03862501414812</v>
       </c>
       <c r="Y41" t="n">
-        <v>105.1408669101759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -22308,19 +22308,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>83.25151063601675</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>149.5643808391968</v>
+        <v>4.564380839196701</v>
       </c>
       <c r="V42" t="n">
-        <v>144.7078867717157</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>127.524164036297</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>31.42385578819619</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -22333,13 +22333,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.32043821347406</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>52.58810074553628</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>30.34123796120309</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -22348,10 +22348,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>8.90976980539233</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>16.9207753695249</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -22384,25 +22384,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>40.83647841395566</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>145.0540608315382</v>
+        <v>0.05406083153809504</v>
       </c>
       <c r="U43" t="n">
-        <v>177.8838959963732</v>
+        <v>32.8838959963731</v>
       </c>
       <c r="V43" t="n">
-        <v>188.6635966082617</v>
+        <v>43.66359660826163</v>
       </c>
       <c r="W43" t="n">
-        <v>175.9272246581436</v>
+        <v>30.92722465814347</v>
       </c>
       <c r="X43" t="n">
-        <v>96.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.48075985369576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -22412,25 +22412,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>182.1037450028298</v>
+        <v>37.10374500277032</v>
       </c>
       <c r="C44" t="n">
-        <v>136.3257817577396</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>76.92891165650076</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>39.47706774554342</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>34.54014870429</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>65.32666136326498</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>107.407264750532</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -22466,22 +22466,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>228.9155015748137</v>
+        <v>83.91550157475774</v>
       </c>
       <c r="U44" t="n">
-        <v>347.3907298200254</v>
+        <v>99.13907298199463</v>
       </c>
       <c r="V44" t="n">
-        <v>328.7171769351695</v>
+        <v>97.27171769350943</v>
       </c>
       <c r="W44" t="n">
-        <v>305.1811034144504</v>
+        <v>94.91811034143726</v>
       </c>
       <c r="X44" t="n">
-        <v>191.0386250141482</v>
+        <v>46.03862501407468</v>
       </c>
       <c r="Y44" t="n">
-        <v>105.1408669101759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -22545,19 +22545,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>83.25151063601675</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>149.5643808391968</v>
+        <v>4.564380839147589</v>
       </c>
       <c r="V45" t="n">
-        <v>144.7078867717157</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>127.524164036297</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>31.42385578819619</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -22570,13 +22570,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.32043821347406</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>52.58810074553628</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>30.34123796120309</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -22585,10 +22585,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>8.90976980539233</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>16.9207753695249</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -22621,25 +22621,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.83647841395566</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>145.0540608315382</v>
+        <v>0.05406083151979146</v>
       </c>
       <c r="U46" t="n">
-        <v>177.8838959963732</v>
+        <v>32.88389599635468</v>
       </c>
       <c r="V46" t="n">
-        <v>188.6635966082617</v>
+        <v>43.66359660824071</v>
       </c>
       <c r="W46" t="n">
-        <v>175.9272246581436</v>
+        <v>30.92722465811778</v>
       </c>
       <c r="X46" t="n">
-        <v>96.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.48075985369576</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22885,49 +22885,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="C2" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="D2" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="E2" t="n">
-        <v>685</v>
+        <v>820.0000000010017</v>
       </c>
       <c r="F2" t="n">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="G2" t="n">
-        <v>772</v>
+        <v>820.0000000001191</v>
       </c>
       <c r="H2" t="n">
-        <v>772</v>
+        <v>821</v>
       </c>
       <c r="I2" t="n">
-        <v>772</v>
+        <v>822</v>
       </c>
       <c r="J2" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="K2" t="n">
-        <v>676</v>
+        <v>772.0000000008682</v>
       </c>
       <c r="L2" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="M2" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="N2" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="O2" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="P2" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3">
@@ -22989,49 +22989,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>121.0000000002418</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>121.0000000002418</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>121.0000000002418</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>121.0000000002418</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.000000000244</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -23107,7 +23107,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>341</v>
+        <v>475</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -23116,37 +23116,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>344</v>
+        <v>345.0000000009995</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-9.932264457922429e-10</v>
       </c>
       <c r="G2" t="n">
-        <v>428</v>
+        <v>475.0000000001159</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.9999999998603343</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>248</v>
+        <v>295.0000000008714</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>542</v>
+        <v>534.9999999992303</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.9999999998603343</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>102</v>
+        <v>252.0000000008887</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>48.00000000024006</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -23250,7 +23250,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.9999999997700763</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -23344,7 +23344,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>341</v>
+        <v>475</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23353,22 +23353,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>344</v>
+        <v>345.0000000009995</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>428</v>
+        <v>475.0000000001159</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.9999999998572093</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>248</v>
+        <v>295.0000000008714</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -23578,10 +23578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>741</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C2" t="n">
-        <v>741</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D2" t="n">
         <v>720.9289116565008</v>
@@ -23596,13 +23596,13 @@
         <v>709.326661363265</v>
       </c>
       <c r="H2" t="n">
-        <v>741</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I2" t="n">
-        <v>487.6029664634913</v>
+        <v>487.6029664666039</v>
       </c>
       <c r="J2" t="n">
-        <v>129.1745238424885</v>
+        <v>129.1745238436532</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -23626,28 +23626,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>95.76639008741824</v>
+        <v>95.76639008972091</v>
       </c>
       <c r="S2" t="n">
-        <v>495.4014928788971</v>
+        <v>495.4014928821556</v>
       </c>
       <c r="T2" t="n">
-        <v>741</v>
+        <v>872.9155015748137</v>
       </c>
       <c r="U2" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="V2" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="W2" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="X2" t="n">
-        <v>741</v>
+        <v>835.0386250141482</v>
       </c>
       <c r="Y2" t="n">
-        <v>741</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="3">
@@ -23678,7 +23678,7 @@
         <v>609.2052264934215</v>
       </c>
       <c r="I3" t="n">
-        <v>346.4072734640678</v>
+        <v>346.4072734672577</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23705,7 +23705,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>235.1216554166051</v>
+        <v>235.1216554184892</v>
       </c>
       <c r="S3" t="n">
         <v>483.5002940856804</v>
@@ -23714,13 +23714,13 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U3" t="n">
-        <v>741</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V3" t="n">
-        <v>741</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W3" t="n">
-        <v>741</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X3" t="n">
         <v>675.4238557881962</v>
@@ -23757,10 +23757,10 @@
         <v>660.9207753695249</v>
       </c>
       <c r="I4" t="n">
-        <v>360.1525010149367</v>
+        <v>360.1525010168791</v>
       </c>
       <c r="J4" t="n">
-        <v>47.74164324777212</v>
+        <v>47.74164324912056</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -23781,25 +23781,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>253.4067531368835</v>
+        <v>253.4067531392305</v>
       </c>
       <c r="R4" t="n">
-        <v>556.9331267624116</v>
+        <v>556.9331267656041</v>
       </c>
       <c r="S4" t="n">
         <v>684.8364784139557</v>
       </c>
       <c r="T4" t="n">
-        <v>741</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U4" t="n">
-        <v>741</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V4" t="n">
-        <v>741</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W4" t="n">
-        <v>741</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X4" t="n">
         <v>740.5990865622442</v>
@@ -23815,10 +23815,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>741</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C5" t="n">
-        <v>741</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D5" t="n">
         <v>720.9289116565008</v>
@@ -23833,7 +23833,7 @@
         <v>709.326661363265</v>
       </c>
       <c r="H5" t="n">
-        <v>741</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I5" t="n">
         <v>487.6029664634913</v>
@@ -23869,22 +23869,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T5" t="n">
-        <v>741</v>
+        <v>872.9155015748137</v>
       </c>
       <c r="U5" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="V5" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="W5" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="X5" t="n">
-        <v>741</v>
+        <v>835.0386250141482</v>
       </c>
       <c r="Y5" t="n">
-        <v>741</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="6">
@@ -23951,13 +23951,13 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U6" t="n">
-        <v>741</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V6" t="n">
-        <v>741</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W6" t="n">
-        <v>741</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X6" t="n">
         <v>675.4238557881962</v>
@@ -24027,16 +24027,16 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T7" t="n">
-        <v>741</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U7" t="n">
-        <v>741</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V7" t="n">
-        <v>741</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W7" t="n">
-        <v>741</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X7" t="n">
         <v>740.5990865622442</v>
@@ -24052,10 +24052,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>741</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C8" t="n">
-        <v>741</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D8" t="n">
         <v>720.9289116565008</v>
@@ -24070,7 +24070,7 @@
         <v>709.326661363265</v>
       </c>
       <c r="H8" t="n">
-        <v>741</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I8" t="n">
         <v>487.6029664634913</v>
@@ -24106,22 +24106,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T8" t="n">
-        <v>741</v>
+        <v>872.9155015748137</v>
       </c>
       <c r="U8" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="V8" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="W8" t="n">
-        <v>741</v>
+        <v>875</v>
       </c>
       <c r="X8" t="n">
-        <v>741</v>
+        <v>835.0386250141482</v>
       </c>
       <c r="Y8" t="n">
-        <v>741</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="9">
@@ -24188,13 +24188,13 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U9" t="n">
-        <v>741</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V9" t="n">
-        <v>741</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W9" t="n">
-        <v>741</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X9" t="n">
         <v>675.4238557881962</v>
@@ -24264,16 +24264,16 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T10" t="n">
-        <v>741</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U10" t="n">
-        <v>741</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V10" t="n">
-        <v>741</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W10" t="n">
-        <v>741</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X10" t="n">
         <v>740.5990865622442</v>
@@ -24289,25 +24289,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>685</v>
+        <v>820.0000000010017</v>
       </c>
       <c r="C11" t="n">
-        <v>685</v>
+        <v>780.3257817582355</v>
       </c>
       <c r="D11" t="n">
-        <v>685</v>
+        <v>720.9289116569412</v>
       </c>
       <c r="E11" t="n">
-        <v>683.4770677455434</v>
+        <v>683.4770677459796</v>
       </c>
       <c r="F11" t="n">
-        <v>678.54014870429</v>
+        <v>678.5401487047236</v>
       </c>
       <c r="G11" t="n">
-        <v>685</v>
+        <v>709.3266613637051</v>
       </c>
       <c r="H11" t="n">
-        <v>685</v>
+        <v>751.4072647508617</v>
       </c>
       <c r="I11" t="n">
         <v>487.6029664634913</v>
@@ -24343,22 +24343,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T11" t="n">
-        <v>685</v>
+        <v>820.0000000010017</v>
       </c>
       <c r="U11" t="n">
-        <v>685</v>
+        <v>820.0000000010017</v>
       </c>
       <c r="V11" t="n">
-        <v>685</v>
+        <v>820.0000000010017</v>
       </c>
       <c r="W11" t="n">
-        <v>685</v>
+        <v>820.0000000010017</v>
       </c>
       <c r="X11" t="n">
-        <v>685</v>
+        <v>820.0000000010017</v>
       </c>
       <c r="Y11" t="n">
-        <v>685</v>
+        <v>749.1408669107018</v>
       </c>
     </row>
     <row r="12">
@@ -24368,25 +24368,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>643.9170916081518</v>
+        <v>643.9170916086034</v>
       </c>
       <c r="C12" t="n">
-        <v>601.2969412516379</v>
+        <v>601.2969412520649</v>
       </c>
       <c r="D12" t="n">
-        <v>561.4275748088519</v>
+        <v>561.4275748092605</v>
       </c>
       <c r="E12" t="n">
-        <v>527.4264172844714</v>
+        <v>527.4264172848749</v>
       </c>
       <c r="F12" t="n">
-        <v>524.3030463988928</v>
+        <v>524.3030463992891</v>
       </c>
       <c r="G12" t="n">
-        <v>548.44189690301</v>
+        <v>548.4418969033891</v>
       </c>
       <c r="H12" t="n">
-        <v>609.2052264934215</v>
+        <v>609.2052264937225</v>
       </c>
       <c r="I12" t="n">
         <v>346.4072734640678</v>
@@ -24416,28 +24416,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>235.1216554166051</v>
+        <v>235.1216554179144</v>
       </c>
       <c r="S12" t="n">
-        <v>483.5002940856804</v>
+        <v>483.5002940856968</v>
       </c>
       <c r="T12" t="n">
-        <v>685</v>
+        <v>727.2515106363694</v>
       </c>
       <c r="U12" t="n">
-        <v>685</v>
+        <v>793.5643808396278</v>
       </c>
       <c r="V12" t="n">
-        <v>685</v>
+        <v>788.7078867721357</v>
       </c>
       <c r="W12" t="n">
-        <v>685</v>
+        <v>771.5241640367499</v>
       </c>
       <c r="X12" t="n">
-        <v>675.4238557881962</v>
+        <v>675.4238557886472</v>
       </c>
       <c r="Y12" t="n">
-        <v>631.5508133819358</v>
+        <v>631.5508133823594</v>
       </c>
     </row>
     <row r="13">
@@ -24447,28 +24447,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>685</v>
+        <v>737.3204382138567</v>
       </c>
       <c r="C13" t="n">
-        <v>685</v>
+        <v>696.5881007458943</v>
       </c>
       <c r="D13" t="n">
-        <v>674.3412379612031</v>
+        <v>674.3412379615797</v>
       </c>
       <c r="E13" t="n">
-        <v>641.2507668233993</v>
+        <v>641.25076682377</v>
       </c>
       <c r="F13" t="n">
-        <v>637.4009440934956</v>
+        <v>637.4009440938547</v>
       </c>
       <c r="G13" t="n">
-        <v>652.9097698053923</v>
+        <v>652.9097698057103</v>
       </c>
       <c r="H13" t="n">
-        <v>660.9207753695249</v>
+        <v>660.9207753696426</v>
       </c>
       <c r="I13" t="n">
-        <v>360.1525010149367</v>
+        <v>360.152501016284</v>
       </c>
       <c r="J13" t="n">
         <v>47.74164324777212</v>
@@ -24492,31 +24492,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>253.4067531368835</v>
+        <v>253.406753138329</v>
       </c>
       <c r="R13" t="n">
         <v>556.9331267624116</v>
       </c>
       <c r="S13" t="n">
-        <v>684.8364784139557</v>
+        <v>684.8364784140988</v>
       </c>
       <c r="T13" t="n">
-        <v>685</v>
+        <v>789.0540608316987</v>
       </c>
       <c r="U13" t="n">
-        <v>685</v>
+        <v>820.0000000010017</v>
       </c>
       <c r="V13" t="n">
-        <v>685</v>
+        <v>820.0000000010017</v>
       </c>
       <c r="W13" t="n">
-        <v>685</v>
+        <v>819.9272246590675</v>
       </c>
       <c r="X13" t="n">
-        <v>685</v>
+        <v>740.5990865625021</v>
       </c>
       <c r="Y13" t="n">
-        <v>685</v>
+        <v>737.4807598540169</v>
       </c>
     </row>
     <row r="14">
@@ -24526,13 +24526,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="C14" t="n">
-        <v>685</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D14" t="n">
-        <v>685</v>
+        <v>720.9289116565008</v>
       </c>
       <c r="E14" t="n">
         <v>683.4770677455434</v>
@@ -24541,13 +24541,13 @@
         <v>678.54014870429</v>
       </c>
       <c r="G14" t="n">
-        <v>685</v>
+        <v>709.326661363265</v>
       </c>
       <c r="H14" t="n">
-        <v>685</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I14" t="n">
-        <v>487.6029664634913</v>
+        <v>487.6029664666039</v>
       </c>
       <c r="J14" t="n">
         <v>129.1745238424885</v>
@@ -24580,22 +24580,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T14" t="n">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="U14" t="n">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="V14" t="n">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="W14" t="n">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="X14" t="n">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="Y14" t="n">
-        <v>685</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="15">
@@ -24626,7 +24626,7 @@
         <v>609.2052264934215</v>
       </c>
       <c r="I15" t="n">
-        <v>346.4072734640678</v>
+        <v>346.4072734672577</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -24653,22 +24653,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>235.1216554166051</v>
+        <v>235.1216554184892</v>
       </c>
       <c r="S15" t="n">
         <v>483.5002940856804</v>
       </c>
       <c r="T15" t="n">
-        <v>685</v>
+        <v>727.2515106360167</v>
       </c>
       <c r="U15" t="n">
-        <v>685</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V15" t="n">
-        <v>685</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W15" t="n">
-        <v>685</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X15" t="n">
         <v>675.4238557881962</v>
@@ -24684,10 +24684,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>685</v>
+        <v>737.3204382134741</v>
       </c>
       <c r="C16" t="n">
-        <v>685</v>
+        <v>696.5881007455363</v>
       </c>
       <c r="D16" t="n">
         <v>674.3412379612031</v>
@@ -24705,10 +24705,10 @@
         <v>660.9207753695249</v>
       </c>
       <c r="I16" t="n">
-        <v>360.1525010149367</v>
+        <v>360.1525010168791</v>
       </c>
       <c r="J16" t="n">
-        <v>47.74164324777212</v>
+        <v>47.74164324912056</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -24729,7 +24729,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>253.4067531368835</v>
+        <v>253.4067531392305</v>
       </c>
       <c r="R16" t="n">
         <v>556.9331267624116</v>
@@ -24738,22 +24738,22 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T16" t="n">
-        <v>685</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U16" t="n">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="V16" t="n">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="W16" t="n">
-        <v>685</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X16" t="n">
-        <v>685</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y16" t="n">
-        <v>685</v>
+        <v>737.4807598536958</v>
       </c>
     </row>
     <row r="17">
@@ -24763,10 +24763,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>772</v>
+        <v>820.000000000119</v>
       </c>
       <c r="C17" t="n">
-        <v>772</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D17" t="n">
         <v>720.9289116565008</v>
@@ -24817,19 +24817,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T17" t="n">
-        <v>772</v>
+        <v>820.000000000119</v>
       </c>
       <c r="U17" t="n">
-        <v>772</v>
+        <v>820.000000000119</v>
       </c>
       <c r="V17" t="n">
-        <v>772</v>
+        <v>820.000000000119</v>
       </c>
       <c r="W17" t="n">
-        <v>772</v>
+        <v>820.000000000119</v>
       </c>
       <c r="X17" t="n">
-        <v>772</v>
+        <v>820.000000000119</v>
       </c>
       <c r="Y17" t="n">
         <v>749.1408669101759</v>
@@ -24899,10 +24899,10 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U18" t="n">
-        <v>772</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V18" t="n">
-        <v>772</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W18" t="n">
         <v>771.524164036297</v>
@@ -24975,16 +24975,16 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T19" t="n">
-        <v>772</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U19" t="n">
-        <v>772</v>
+        <v>820.000000000119</v>
       </c>
       <c r="V19" t="n">
-        <v>772</v>
+        <v>820.000000000119</v>
       </c>
       <c r="W19" t="n">
-        <v>772</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X19" t="n">
         <v>740.5990865622442</v>
@@ -25000,10 +25000,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>772</v>
+        <v>821</v>
       </c>
       <c r="C20" t="n">
-        <v>772</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D20" t="n">
         <v>720.9289116565008</v>
@@ -25054,19 +25054,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T20" t="n">
-        <v>772</v>
+        <v>821</v>
       </c>
       <c r="U20" t="n">
-        <v>772</v>
+        <v>821</v>
       </c>
       <c r="V20" t="n">
-        <v>772</v>
+        <v>821</v>
       </c>
       <c r="W20" t="n">
-        <v>772</v>
+        <v>821</v>
       </c>
       <c r="X20" t="n">
-        <v>772</v>
+        <v>821</v>
       </c>
       <c r="Y20" t="n">
         <v>749.1408669101759</v>
@@ -25136,10 +25136,10 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U21" t="n">
-        <v>772</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V21" t="n">
-        <v>772</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W21" t="n">
         <v>771.524164036297</v>
@@ -25212,16 +25212,16 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T22" t="n">
-        <v>772</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U22" t="n">
-        <v>772</v>
+        <v>821</v>
       </c>
       <c r="V22" t="n">
-        <v>772</v>
+        <v>821</v>
       </c>
       <c r="W22" t="n">
-        <v>772</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X22" t="n">
         <v>740.5990865622442</v>
@@ -25237,10 +25237,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>772</v>
+        <v>822</v>
       </c>
       <c r="C23" t="n">
-        <v>772</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D23" t="n">
         <v>720.9289116565008</v>
@@ -25291,19 +25291,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T23" t="n">
-        <v>772</v>
+        <v>822</v>
       </c>
       <c r="U23" t="n">
-        <v>772</v>
+        <v>822</v>
       </c>
       <c r="V23" t="n">
-        <v>772</v>
+        <v>822</v>
       </c>
       <c r="W23" t="n">
-        <v>772</v>
+        <v>822</v>
       </c>
       <c r="X23" t="n">
-        <v>772</v>
+        <v>822</v>
       </c>
       <c r="Y23" t="n">
         <v>749.1408669101759</v>
@@ -25373,10 +25373,10 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U24" t="n">
-        <v>772</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V24" t="n">
-        <v>772</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W24" t="n">
         <v>771.524164036297</v>
@@ -25449,16 +25449,16 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T25" t="n">
-        <v>772</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U25" t="n">
-        <v>772</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V25" t="n">
-        <v>772</v>
+        <v>822</v>
       </c>
       <c r="W25" t="n">
-        <v>772</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X25" t="n">
         <v>740.5990865622442</v>
@@ -25474,31 +25474,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="C26" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="D26" t="n">
-        <v>676</v>
+        <v>720.928911656551</v>
       </c>
       <c r="E26" t="n">
-        <v>676</v>
+        <v>683.4770677455932</v>
       </c>
       <c r="F26" t="n">
-        <v>676</v>
+        <v>678.5401487043395</v>
       </c>
       <c r="G26" t="n">
-        <v>676</v>
+        <v>709.3266613633152</v>
       </c>
       <c r="H26" t="n">
-        <v>676</v>
+        <v>751.4072647505697</v>
       </c>
       <c r="I26" t="n">
-        <v>487.6029664634913</v>
+        <v>487.602966466571</v>
       </c>
       <c r="J26" t="n">
-        <v>129.1745238424885</v>
+        <v>129.1745238435239</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -25522,28 +25522,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>95.76639008741824</v>
+        <v>95.76639008959569</v>
       </c>
       <c r="S26" t="n">
-        <v>495.4014928788971</v>
+        <v>495.4014928821377</v>
       </c>
       <c r="T26" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="U26" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="V26" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="W26" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="X26" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="Y26" t="n">
-        <v>676</v>
+        <v>749.1408669102359</v>
       </c>
     </row>
     <row r="27">
@@ -25553,28 +25553,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>643.9170916081518</v>
+        <v>643.9170916082035</v>
       </c>
       <c r="C27" t="n">
-        <v>601.2969412516379</v>
+        <v>601.2969412516866</v>
       </c>
       <c r="D27" t="n">
-        <v>561.4275748088519</v>
+        <v>561.4275748088985</v>
       </c>
       <c r="E27" t="n">
-        <v>527.4264172844714</v>
+        <v>527.4264172845175</v>
       </c>
       <c r="F27" t="n">
-        <v>524.3030463988928</v>
+        <v>524.303046398938</v>
       </c>
       <c r="G27" t="n">
-        <v>548.44189690301</v>
+        <v>548.4418969030532</v>
       </c>
       <c r="H27" t="n">
-        <v>609.2052264934215</v>
+        <v>609.2052264934558</v>
       </c>
       <c r="I27" t="n">
-        <v>346.4072734640678</v>
+        <v>346.4072734672209</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -25601,28 +25601,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>235.1216554166051</v>
+        <v>235.1216554184236</v>
       </c>
       <c r="S27" t="n">
-        <v>483.5002940856804</v>
+        <v>483.5002940856822</v>
       </c>
       <c r="T27" t="n">
-        <v>676</v>
+        <v>727.251510636057</v>
       </c>
       <c r="U27" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="V27" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="W27" t="n">
-        <v>676</v>
+        <v>771.5241640363487</v>
       </c>
       <c r="X27" t="n">
-        <v>675.4238557881962</v>
+        <v>675.4238557882477</v>
       </c>
       <c r="Y27" t="n">
-        <v>631.5508133819358</v>
+        <v>631.5508133819842</v>
       </c>
     </row>
     <row r="28">
@@ -25632,31 +25632,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>676</v>
+        <v>737.3204382135177</v>
       </c>
       <c r="C28" t="n">
-        <v>676</v>
+        <v>696.5881007455771</v>
       </c>
       <c r="D28" t="n">
-        <v>674.3412379612031</v>
+        <v>674.3412379612461</v>
       </c>
       <c r="E28" t="n">
-        <v>641.2507668233993</v>
+        <v>641.2507668234416</v>
       </c>
       <c r="F28" t="n">
-        <v>637.4009440934956</v>
+        <v>637.4009440935365</v>
       </c>
       <c r="G28" t="n">
-        <v>652.9097698053923</v>
+        <v>652.9097698054286</v>
       </c>
       <c r="H28" t="n">
-        <v>660.9207753695249</v>
+        <v>660.9207753695383</v>
       </c>
       <c r="I28" t="n">
-        <v>360.1525010149367</v>
+        <v>360.1525010168111</v>
       </c>
       <c r="J28" t="n">
-        <v>47.74164324777212</v>
+        <v>47.74164324896662</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -25677,31 +25677,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>253.4067531368835</v>
+        <v>253.4067531391276</v>
       </c>
       <c r="R28" t="n">
-        <v>556.9331267624116</v>
+        <v>556.9331267655842</v>
       </c>
       <c r="S28" t="n">
-        <v>676</v>
+        <v>684.836478413972</v>
       </c>
       <c r="T28" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="U28" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="V28" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="W28" t="n">
-        <v>676</v>
+        <v>771.999999999872</v>
       </c>
       <c r="X28" t="n">
-        <v>676</v>
+        <v>740.5990865622737</v>
       </c>
       <c r="Y28" t="n">
-        <v>676</v>
+        <v>737.4807598537324</v>
       </c>
     </row>
     <row r="29">
@@ -25711,25 +25711,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="C29" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="D29" t="n">
-        <v>676</v>
+        <v>720.9289116569412</v>
       </c>
       <c r="E29" t="n">
-        <v>676</v>
+        <v>683.4770677459796</v>
       </c>
       <c r="F29" t="n">
-        <v>676</v>
+        <v>678.5401487047236</v>
       </c>
       <c r="G29" t="n">
-        <v>676</v>
+        <v>709.3266613637051</v>
       </c>
       <c r="H29" t="n">
-        <v>676</v>
+        <v>751.4072647508617</v>
       </c>
       <c r="I29" t="n">
         <v>487.6029664634913</v>
@@ -25765,22 +25765,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T29" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="U29" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="V29" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="W29" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="X29" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="Y29" t="n">
-        <v>676</v>
+        <v>749.1408669107018</v>
       </c>
     </row>
     <row r="30">
@@ -25790,25 +25790,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>643.9170916081518</v>
+        <v>643.9170916086034</v>
       </c>
       <c r="C30" t="n">
-        <v>601.2969412516379</v>
+        <v>601.2969412520649</v>
       </c>
       <c r="D30" t="n">
-        <v>561.4275748088519</v>
+        <v>561.4275748092605</v>
       </c>
       <c r="E30" t="n">
-        <v>527.4264172844714</v>
+        <v>527.4264172848749</v>
       </c>
       <c r="F30" t="n">
-        <v>524.3030463988928</v>
+        <v>524.3030463992891</v>
       </c>
       <c r="G30" t="n">
-        <v>548.44189690301</v>
+        <v>548.4418969033891</v>
       </c>
       <c r="H30" t="n">
-        <v>609.2052264934215</v>
+        <v>609.2052264937225</v>
       </c>
       <c r="I30" t="n">
         <v>346.4072734640678</v>
@@ -25838,28 +25838,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>235.1216554166051</v>
+        <v>235.1216554179144</v>
       </c>
       <c r="S30" t="n">
-        <v>483.5002940856804</v>
+        <v>483.5002940856968</v>
       </c>
       <c r="T30" t="n">
-        <v>676</v>
+        <v>727.2515106363694</v>
       </c>
       <c r="U30" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="V30" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="W30" t="n">
-        <v>676</v>
+        <v>771.5241640367499</v>
       </c>
       <c r="X30" t="n">
-        <v>675.4238557881962</v>
+        <v>675.4238557886472</v>
       </c>
       <c r="Y30" t="n">
-        <v>631.5508133819358</v>
+        <v>631.5508133823594</v>
       </c>
     </row>
     <row r="31">
@@ -25869,28 +25869,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>676</v>
+        <v>737.3204382138567</v>
       </c>
       <c r="C31" t="n">
-        <v>676</v>
+        <v>696.5881007458943</v>
       </c>
       <c r="D31" t="n">
-        <v>674.3412379612031</v>
+        <v>674.3412379615797</v>
       </c>
       <c r="E31" t="n">
-        <v>641.2507668233993</v>
+        <v>641.25076682377</v>
       </c>
       <c r="F31" t="n">
-        <v>637.4009440934956</v>
+        <v>637.4009440938547</v>
       </c>
       <c r="G31" t="n">
-        <v>652.9097698053923</v>
+        <v>652.9097698057103</v>
       </c>
       <c r="H31" t="n">
-        <v>660.9207753695249</v>
+        <v>660.9207753696426</v>
       </c>
       <c r="I31" t="n">
-        <v>360.1525010149367</v>
+        <v>360.152501016284</v>
       </c>
       <c r="J31" t="n">
         <v>47.74164324777212</v>
@@ -25914,31 +25914,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>253.4067531368835</v>
+        <v>253.406753138329</v>
       </c>
       <c r="R31" t="n">
         <v>556.9331267624116</v>
       </c>
       <c r="S31" t="n">
-        <v>676</v>
+        <v>684.8364784140988</v>
       </c>
       <c r="T31" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="U31" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="V31" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="W31" t="n">
-        <v>676</v>
+        <v>772.0000000008683</v>
       </c>
       <c r="X31" t="n">
-        <v>676</v>
+        <v>740.5990865625021</v>
       </c>
       <c r="Y31" t="n">
-        <v>676</v>
+        <v>737.4807598540169</v>
       </c>
     </row>
     <row r="32">
@@ -25948,7 +25948,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>790</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C32" t="n">
         <v>780.3257817577396</v>
@@ -26002,19 +26002,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T32" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="U32" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="V32" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="W32" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="X32" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="Y32" t="n">
         <v>749.1408669101759</v>
@@ -26084,7 +26084,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U33" t="n">
-        <v>790</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V33" t="n">
         <v>788.7078867717157</v>
@@ -26163,13 +26163,13 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U34" t="n">
-        <v>790</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V34" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="W34" t="n">
-        <v>790</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X34" t="n">
         <v>740.5990865622442</v>
@@ -26185,7 +26185,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>790</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C35" t="n">
         <v>780.3257817577396</v>
@@ -26239,19 +26239,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T35" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="U35" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="V35" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="W35" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="X35" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="Y35" t="n">
         <v>749.1408669101759</v>
@@ -26321,7 +26321,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U36" t="n">
-        <v>790</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V36" t="n">
         <v>788.7078867717157</v>
@@ -26400,13 +26400,13 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U37" t="n">
-        <v>790</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V37" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="W37" t="n">
-        <v>790</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X37" t="n">
         <v>740.5990865622442</v>
@@ -26422,7 +26422,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>790</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C38" t="n">
         <v>780.3257817577396</v>
@@ -26476,19 +26476,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T38" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="U38" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="V38" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="W38" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="X38" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="Y38" t="n">
         <v>749.1408669101759</v>
@@ -26558,7 +26558,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U39" t="n">
-        <v>790</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V39" t="n">
         <v>788.7078867717157</v>
@@ -26637,13 +26637,13 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U40" t="n">
-        <v>790</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V40" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="W40" t="n">
-        <v>790</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X40" t="n">
         <v>740.5990865622442</v>
@@ -26659,31 +26659,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="C41" t="n">
-        <v>644</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D41" t="n">
-        <v>644</v>
+        <v>720.9289116565008</v>
       </c>
       <c r="E41" t="n">
-        <v>644</v>
+        <v>683.4770677455434</v>
       </c>
       <c r="F41" t="n">
-        <v>644</v>
+        <v>678.54014870429</v>
       </c>
       <c r="G41" t="n">
-        <v>644</v>
+        <v>709.326661363265</v>
       </c>
       <c r="H41" t="n">
-        <v>644</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I41" t="n">
-        <v>487.6029664634913</v>
+        <v>487.6029664666039</v>
       </c>
       <c r="J41" t="n">
-        <v>129.1745238424885</v>
+        <v>129.1745238436532</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -26707,28 +26707,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>95.76639008741824</v>
+        <v>95.76639008972091</v>
       </c>
       <c r="S41" t="n">
-        <v>495.4014928788971</v>
+        <v>495.4014928821556</v>
       </c>
       <c r="T41" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="U41" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="V41" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="W41" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="X41" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="Y41" t="n">
-        <v>644</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="42">
@@ -26759,7 +26759,7 @@
         <v>609.2052264934215</v>
       </c>
       <c r="I42" t="n">
-        <v>346.4072734640678</v>
+        <v>346.4072734672577</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -26786,25 +26786,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>235.1216554166051</v>
+        <v>235.1216554184892</v>
       </c>
       <c r="S42" t="n">
         <v>483.5002940856804</v>
       </c>
       <c r="T42" t="n">
-        <v>644</v>
+        <v>727.2515106360167</v>
       </c>
       <c r="U42" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="V42" t="n">
-        <v>644</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W42" t="n">
-        <v>644</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X42" t="n">
-        <v>644</v>
+        <v>675.4238557881962</v>
       </c>
       <c r="Y42" t="n">
         <v>631.5508133819358</v>
@@ -26817,13 +26817,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>644</v>
+        <v>737.3204382134741</v>
       </c>
       <c r="C43" t="n">
-        <v>644</v>
+        <v>696.5881007455363</v>
       </c>
       <c r="D43" t="n">
-        <v>644</v>
+        <v>674.3412379612031</v>
       </c>
       <c r="E43" t="n">
         <v>641.2507668233993</v>
@@ -26832,16 +26832,16 @@
         <v>637.4009440934956</v>
       </c>
       <c r="G43" t="n">
-        <v>644</v>
+        <v>652.9097698053923</v>
       </c>
       <c r="H43" t="n">
-        <v>644</v>
+        <v>660.9207753695249</v>
       </c>
       <c r="I43" t="n">
-        <v>360.1525010149367</v>
+        <v>360.1525010168791</v>
       </c>
       <c r="J43" t="n">
-        <v>47.74164324777212</v>
+        <v>47.74164324912056</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -26862,31 +26862,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>253.4067531368835</v>
+        <v>253.4067531392305</v>
       </c>
       <c r="R43" t="n">
-        <v>556.9331267624116</v>
+        <v>556.9331267656041</v>
       </c>
       <c r="S43" t="n">
-        <v>644</v>
+        <v>684.8364784139557</v>
       </c>
       <c r="T43" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="U43" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="V43" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="W43" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="X43" t="n">
-        <v>644</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y43" t="n">
-        <v>644</v>
+        <v>737.4807598536958</v>
       </c>
     </row>
     <row r="44">
@@ -26896,31 +26896,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="C44" t="n">
-        <v>644</v>
+        <v>780.3257817576831</v>
       </c>
       <c r="D44" t="n">
-        <v>644</v>
+        <v>720.9289116564505</v>
       </c>
       <c r="E44" t="n">
-        <v>644</v>
+        <v>683.4770677454937</v>
       </c>
       <c r="F44" t="n">
-        <v>644</v>
+        <v>678.5401487042406</v>
       </c>
       <c r="G44" t="n">
-        <v>644</v>
+        <v>709.3266613632148</v>
       </c>
       <c r="H44" t="n">
-        <v>644</v>
+        <v>751.4072647504944</v>
       </c>
       <c r="I44" t="n">
-        <v>487.6029664634913</v>
+        <v>487.6029664666367</v>
       </c>
       <c r="J44" t="n">
-        <v>129.1745238424885</v>
+        <v>129.1745238437824</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -26944,28 +26944,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>95.76639008741824</v>
+        <v>95.76639008984603</v>
       </c>
       <c r="S44" t="n">
         <v>495.4014928788971</v>
       </c>
       <c r="T44" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="U44" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="V44" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="W44" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="X44" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="Y44" t="n">
-        <v>644</v>
+        <v>749.140866910116</v>
       </c>
     </row>
     <row r="45">
@@ -26975,28 +26975,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>643.9170916081518</v>
+        <v>643.9170916081003</v>
       </c>
       <c r="C45" t="n">
-        <v>601.2969412516379</v>
+        <v>601.2969412515893</v>
       </c>
       <c r="D45" t="n">
-        <v>561.4275748088519</v>
+        <v>561.4275748088053</v>
       </c>
       <c r="E45" t="n">
-        <v>527.4264172844714</v>
+        <v>527.4264172844254</v>
       </c>
       <c r="F45" t="n">
-        <v>524.3030463988928</v>
+        <v>524.3030463988475</v>
       </c>
       <c r="G45" t="n">
-        <v>548.44189690301</v>
+        <v>548.4418969029667</v>
       </c>
       <c r="H45" t="n">
-        <v>609.2052264934215</v>
+        <v>609.2052264933872</v>
       </c>
       <c r="I45" t="n">
-        <v>346.4072734640678</v>
+        <v>346.4072734672945</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -27023,28 +27023,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>235.1216554166051</v>
+        <v>235.1216554185547</v>
       </c>
       <c r="S45" t="n">
-        <v>483.5002940856804</v>
+        <v>483.5002940856785</v>
       </c>
       <c r="T45" t="n">
-        <v>644</v>
+        <v>727.2515106359765</v>
       </c>
       <c r="U45" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="V45" t="n">
-        <v>644</v>
+        <v>788.7078867716677</v>
       </c>
       <c r="W45" t="n">
-        <v>644</v>
+        <v>771.5241640362453</v>
       </c>
       <c r="X45" t="n">
-        <v>644</v>
+        <v>675.4238557881448</v>
       </c>
       <c r="Y45" t="n">
-        <v>631.5508133819358</v>
+        <v>631.5508133818876</v>
       </c>
     </row>
     <row r="46">
@@ -27054,31 +27054,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>644</v>
+        <v>737.3204382134304</v>
       </c>
       <c r="C46" t="n">
-        <v>644</v>
+        <v>696.5881007454955</v>
       </c>
       <c r="D46" t="n">
-        <v>644</v>
+        <v>674.3412379611601</v>
       </c>
       <c r="E46" t="n">
-        <v>641.2507668233993</v>
+        <v>641.250766823357</v>
       </c>
       <c r="F46" t="n">
-        <v>637.4009440934956</v>
+        <v>637.4009440934547</v>
       </c>
       <c r="G46" t="n">
-        <v>644</v>
+        <v>652.9097698053561</v>
       </c>
       <c r="H46" t="n">
-        <v>644</v>
+        <v>660.9207753695115</v>
       </c>
       <c r="I46" t="n">
-        <v>360.1525010149367</v>
+        <v>360.1525010169469</v>
       </c>
       <c r="J46" t="n">
-        <v>47.74164324777212</v>
+        <v>47.74164324927438</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -27099,31 +27099,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>253.4067531368835</v>
+        <v>253.4067531393333</v>
       </c>
       <c r="R46" t="n">
         <v>556.9331267624116</v>
       </c>
       <c r="S46" t="n">
-        <v>644</v>
+        <v>684.8364784139394</v>
       </c>
       <c r="T46" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="U46" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="V46" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="W46" t="n">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="X46" t="n">
-        <v>644</v>
+        <v>740.5990865622149</v>
       </c>
       <c r="Y46" t="n">
-        <v>644</v>
+        <v>737.480759853659</v>
       </c>
     </row>
   </sheetData>
@@ -30913,10 +30913,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.05643922015430471</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -31153,10 +31153,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.05643922015417732</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -31384,7 +31384,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.05643922015417552</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -31393,7 +31393,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -31624,13 +31624,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>19.24855540405397</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -31858,16 +31858,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>19.2485554052396</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -32095,16 +32095,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>19.2485554048916</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -32335,13 +32335,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>16.18764325350742</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32572,13 +32572,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>13.12673110161309</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -32809,13 +32809,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>84.07291150934613</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>121.0000000002418</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>121.0000000002418</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -33043,16 +33043,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>121.0000000002418</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>84.07291150732978</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>121.0000000002418</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -33283,10 +33283,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>7.517609583210744</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>121.0000000002418</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -33523,10 +33523,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>121.0000000002418</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>7.517609583210758</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -33760,10 +33760,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>103.000000000244</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>25.51760958320848</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -33994,13 +33994,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>52.13683211170354</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -34228,16 +34228,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>52.13683211149097</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -34579,10 +34579,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>17.25165683802061</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.4454592416504015</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -34816,10 +34816,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>17.25165683802061</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.4454592416502692</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -35053,10 +35053,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>17.25165683802061</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.4454592416502692</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -35290,13 +35290,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.25165683764396</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>55.44545924124202</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>34.26299307261672</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35527,13 +35527,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.25165683801754</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>55.4454592416472</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>34.26299307299996</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35764,13 +35764,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>72.25165683790385</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>55.44545924153351</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>34.26299307288627</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -36001,13 +36001,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>71.25165683804664</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>54.4454592416763</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>33.26299307302907</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -36238,13 +36238,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>70.25165683802277</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>53.44545924165243</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>32.26299307300519</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -36472,16 +36472,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>13.62395141751063</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>120.2516568382221</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>103.445459241848</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>82.26299307320335</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -36709,16 +36709,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>13.62395141690487</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>120.2516568377774</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>103.4454592413754</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>82.26299307275009</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -36949,13 +36949,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>60.25165683804323</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>43.44545924167289</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>22.26299307302565</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -37186,13 +37186,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>60.25165683804323</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>43.44545924167289</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>22.26299307302565</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -37423,13 +37423,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>60.25165683804323</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>43.44545924167289</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>22.26299307302565</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -37660,13 +37660,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>103.2516568380228</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>86.44545924165243</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>65.26299307300519</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -37897,13 +37897,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>103.2516568379517</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>86.44545924158501</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>65.26299307293539</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
